--- a/biology/Zoologie/Duriavenator/Duriavenator.xlsx
+++ b/biology/Zoologie/Duriavenator/Duriavenator.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Duriavenator hesperis
-Duriavenator est un genre éteint de dinosaures théropodes et dont une seule[1] espèce est connue, Duriavenator hesperis (Waldman, 1974).
+Duriavenator est un genre éteint de dinosaures théropodes et dont une seule espèce est connue, Duriavenator hesperis (Waldman, 1974).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Duriavenator hesperis a été initialement décrite en 1974 par Michael Waldman (d) sous le protonyme de Megalosaurus hesperis avant d’être rattachée au genre Duriavenator spécialement créé pour elle par Roger Benson (d) en 2008.
 </t>
@@ -543,7 +557,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom signifie « chasseur du Dorset », du latin Duria (nom latin du Dorset) et venator « chasseur ».
 </t>
@@ -574,7 +590,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Genre Duriavenator :
 (en) Roger B. J. Benson, « A redescription of 'Megalosaurus' hesperis (Dinosauria, Theropoda) from the Inferior Oolite (Bajocian, Middle Jurassic) of Dorset, United Kingdom », Zootaxa, Magnolia Press (d), vol. 1931, no 1,‎ 12 novembre 2008, p. 57-67 (ISSN 1175-5334 et 1175-5326, OCLC 49030618, DOI 10.11646/ZOOTAXA.1931.1.5)
